--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2977,28 +2977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>427.435804930273</v>
+        <v>515.4651765557037</v>
       </c>
       <c r="AB2" t="n">
-        <v>584.836525442444</v>
+        <v>705.2821952821449</v>
       </c>
       <c r="AC2" t="n">
-        <v>529.0205482774352</v>
+        <v>637.9710524341943</v>
       </c>
       <c r="AD2" t="n">
-        <v>427435.804930273</v>
+        <v>515465.1765557037</v>
       </c>
       <c r="AE2" t="n">
-        <v>584836.525442444</v>
+        <v>705282.1952821449</v>
       </c>
       <c r="AF2" t="n">
         <v>8.520604474174111e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.42083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>529020.5482774351</v>
+        <v>637971.0524341944</v>
       </c>
     </row>
     <row r="3">
@@ -3083,28 +3083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>188.4359900552275</v>
+        <v>237.3112765992641</v>
       </c>
       <c r="AB3" t="n">
-        <v>257.8264348026085</v>
+        <v>324.6997580775894</v>
       </c>
       <c r="AC3" t="n">
-        <v>233.2198417267966</v>
+        <v>293.7108688857334</v>
       </c>
       <c r="AD3" t="n">
-        <v>188435.9900552275</v>
+        <v>237311.2765992641</v>
       </c>
       <c r="AE3" t="n">
-        <v>257826.4348026085</v>
+        <v>324699.7580775894</v>
       </c>
       <c r="AF3" t="n">
         <v>1.549680230183567e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.12916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>233219.8417267966</v>
+        <v>293710.8688857334</v>
       </c>
     </row>
     <row r="4">
@@ -3189,28 +3189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>152.5658757082161</v>
+        <v>201.4743166411764</v>
       </c>
       <c r="AB4" t="n">
-        <v>208.7473618752929</v>
+        <v>275.6660484478675</v>
       </c>
       <c r="AC4" t="n">
-        <v>188.8248066367369</v>
+        <v>249.3568676838128</v>
       </c>
       <c r="AD4" t="n">
-        <v>152565.8757082161</v>
+        <v>201474.3166411764</v>
       </c>
       <c r="AE4" t="n">
-        <v>208747.3618752928</v>
+        <v>275666.0484478675</v>
       </c>
       <c r="AF4" t="n">
         <v>1.756065693994354e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.9375</v>
       </c>
       <c r="AH4" t="n">
-        <v>188824.8066367369</v>
+        <v>249356.8676838128</v>
       </c>
     </row>
     <row r="5">
@@ -3295,28 +3295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>145.6552399327774</v>
+        <v>184.7420052064658</v>
       </c>
       <c r="AB5" t="n">
-        <v>199.291925131609</v>
+        <v>252.7721617654254</v>
       </c>
       <c r="AC5" t="n">
-        <v>180.2717835050784</v>
+        <v>228.647941414564</v>
       </c>
       <c r="AD5" t="n">
-        <v>145655.2399327774</v>
+        <v>184742.0052064658</v>
       </c>
       <c r="AE5" t="n">
-        <v>199291.925131609</v>
+        <v>252772.1617654254</v>
       </c>
       <c r="AF5" t="n">
         <v>1.862554415694134e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.424999999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>180271.7835050784</v>
+        <v>228647.941414564</v>
       </c>
     </row>
     <row r="6">
@@ -3401,28 +3401,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>142.1989149439153</v>
+        <v>181.2856802176038</v>
       </c>
       <c r="AB6" t="n">
-        <v>194.5628287995534</v>
+        <v>248.0430654333699</v>
       </c>
       <c r="AC6" t="n">
-        <v>175.9940254896243</v>
+        <v>224.3701833991099</v>
       </c>
       <c r="AD6" t="n">
-        <v>142198.9149439153</v>
+        <v>181285.6802176037</v>
       </c>
       <c r="AE6" t="n">
-        <v>194562.8287995534</v>
+        <v>248043.0654333699</v>
       </c>
       <c r="AF6" t="n">
         <v>1.914838230946803e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.195833333333335</v>
       </c>
       <c r="AH6" t="n">
-        <v>175994.0254896243</v>
+        <v>224370.1833991099</v>
       </c>
     </row>
     <row r="7">
@@ -3507,28 +3507,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>126.6279397320694</v>
+        <v>165.7820248134623</v>
       </c>
       <c r="AB7" t="n">
-        <v>173.2579335717722</v>
+        <v>226.8302801364302</v>
       </c>
       <c r="AC7" t="n">
-        <v>156.7224395607676</v>
+        <v>205.1819165585722</v>
       </c>
       <c r="AD7" t="n">
-        <v>126627.9397320694</v>
+        <v>165782.0248134623</v>
       </c>
       <c r="AE7" t="n">
-        <v>173257.9335717722</v>
+        <v>226830.2801364302</v>
       </c>
       <c r="AF7" t="n">
         <v>2.00339676816512e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>156722.4395607676</v>
+        <v>205181.9165585722</v>
       </c>
     </row>
     <row r="8">
@@ -3613,28 +3613,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>123.2453952859123</v>
+        <v>162.3994803673052</v>
       </c>
       <c r="AB8" t="n">
-        <v>168.6297870332133</v>
+        <v>222.2021335978713</v>
       </c>
       <c r="AC8" t="n">
-        <v>152.5359968322028</v>
+        <v>200.9954738300075</v>
       </c>
       <c r="AD8" t="n">
-        <v>123245.3952859123</v>
+        <v>162399.4803673052</v>
       </c>
       <c r="AE8" t="n">
-        <v>168629.7870332134</v>
+        <v>222202.1335978713</v>
       </c>
       <c r="AF8" t="n">
         <v>2.050520005111149e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.654166666666668</v>
       </c>
       <c r="AH8" t="n">
-        <v>152535.9968322028</v>
+        <v>200995.4738300075</v>
       </c>
     </row>
     <row r="9">
@@ -3719,28 +3719,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>121.945870322625</v>
+        <v>161.0999554040178</v>
       </c>
       <c r="AB9" t="n">
-        <v>166.8517196474493</v>
+        <v>220.4240662121073</v>
       </c>
       <c r="AC9" t="n">
-        <v>150.9276257022022</v>
+        <v>199.387102700007</v>
       </c>
       <c r="AD9" t="n">
-        <v>121945.8703226249</v>
+        <v>161099.9554040178</v>
       </c>
       <c r="AE9" t="n">
-        <v>166851.7196474493</v>
+        <v>220424.0662121073</v>
       </c>
       <c r="AF9" t="n">
         <v>2.066039408485861e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.595833333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>150927.6257022023</v>
+        <v>199387.102700007</v>
       </c>
     </row>
     <row r="10">
@@ -3825,28 +3825,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>122.1241278808163</v>
+        <v>161.2782129622092</v>
       </c>
       <c r="AB10" t="n">
-        <v>167.095619502735</v>
+        <v>220.667966067393</v>
       </c>
       <c r="AC10" t="n">
-        <v>151.1482480976152</v>
+        <v>199.6077250954199</v>
       </c>
       <c r="AD10" t="n">
-        <v>122124.1278808163</v>
+        <v>161278.2129622092</v>
       </c>
       <c r="AE10" t="n">
-        <v>167095.619502735</v>
+        <v>220667.966067393</v>
       </c>
       <c r="AF10" t="n">
         <v>2.066717440672134e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.595833333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>151148.2480976152</v>
+        <v>199607.7250954199</v>
       </c>
     </row>
   </sheetData>
@@ -4122,28 +4122,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>289.5762695800192</v>
+        <v>366.9864973621033</v>
       </c>
       <c r="AB2" t="n">
-        <v>396.2110272427686</v>
+        <v>502.1271159924402</v>
       </c>
       <c r="AC2" t="n">
-        <v>358.3972028883873</v>
+        <v>454.2048087819544</v>
       </c>
       <c r="AD2" t="n">
-        <v>289576.2695800192</v>
+        <v>366986.4973621033</v>
       </c>
       <c r="AE2" t="n">
-        <v>396211.0272427686</v>
+        <v>502127.1159924401</v>
       </c>
       <c r="AF2" t="n">
         <v>1.179773203323576e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.55833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>358397.2028883873</v>
+        <v>454204.8087819544</v>
       </c>
     </row>
     <row r="3">
@@ -4228,28 +4228,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>167.8806650418034</v>
+        <v>216.2834107923433</v>
       </c>
       <c r="AB3" t="n">
-        <v>229.7017322823175</v>
+        <v>295.9285043966081</v>
       </c>
       <c r="AC3" t="n">
-        <v>207.7793213417654</v>
+        <v>267.6855032753476</v>
       </c>
       <c r="AD3" t="n">
-        <v>167880.6650418034</v>
+        <v>216283.4107923433</v>
       </c>
       <c r="AE3" t="n">
-        <v>229701.7322823175</v>
+        <v>295928.5043966081</v>
       </c>
       <c r="AF3" t="n">
         <v>1.742828042989709e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.854166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>207779.3213417654</v>
+        <v>267685.5032753476</v>
       </c>
     </row>
     <row r="4">
@@ -4334,28 +4334,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>138.2720899301469</v>
+        <v>176.9269667228744</v>
       </c>
       <c r="AB4" t="n">
-        <v>189.1899735764251</v>
+        <v>242.0792813370161</v>
       </c>
       <c r="AC4" t="n">
-        <v>171.1339480281401</v>
+        <v>218.9755744866867</v>
       </c>
       <c r="AD4" t="n">
-        <v>138272.0899301469</v>
+        <v>176926.9667228744</v>
       </c>
       <c r="AE4" t="n">
-        <v>189189.9735764251</v>
+        <v>242079.2813370161</v>
       </c>
       <c r="AF4" t="n">
         <v>2.054628779544448e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.358333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>171133.9480281401</v>
+        <v>218975.5744866867</v>
       </c>
     </row>
     <row r="5">
@@ -4440,28 +4440,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>121.7349938661262</v>
+        <v>160.4571904665581</v>
       </c>
       <c r="AB5" t="n">
-        <v>166.5631891764551</v>
+        <v>219.5446068678876</v>
       </c>
       <c r="AC5" t="n">
-        <v>150.6666321744046</v>
+        <v>198.5915777212703</v>
       </c>
       <c r="AD5" t="n">
-        <v>121734.9938661262</v>
+        <v>160457.1904665581</v>
       </c>
       <c r="AE5" t="n">
-        <v>166563.1891764551</v>
+        <v>219544.6068678875</v>
       </c>
       <c r="AF5" t="n">
         <v>2.184047723732403e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.862500000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>150666.6321744046</v>
+        <v>198591.5777212704</v>
       </c>
     </row>
     <row r="6">
@@ -4546,28 +4546,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>118.7344521478235</v>
+        <v>157.4566487482554</v>
       </c>
       <c r="AB6" t="n">
-        <v>162.4577156229174</v>
+        <v>215.4391333143499</v>
       </c>
       <c r="AC6" t="n">
-        <v>146.9529792547469</v>
+        <v>194.8779248016127</v>
       </c>
       <c r="AD6" t="n">
-        <v>118734.4521478235</v>
+        <v>157456.6487482555</v>
       </c>
       <c r="AE6" t="n">
-        <v>162457.7156229174</v>
+        <v>215439.1333143499</v>
       </c>
       <c r="AF6" t="n">
         <v>2.231446381635635e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.695833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>146952.9792547469</v>
+        <v>194877.9248016127</v>
       </c>
     </row>
     <row r="7">
@@ -4652,28 +4652,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>117.38941419811</v>
+        <v>156.1116107985419</v>
       </c>
       <c r="AB7" t="n">
-        <v>160.6173753612339</v>
+        <v>213.5987930526663</v>
       </c>
       <c r="AC7" t="n">
-        <v>145.2882784847041</v>
+        <v>193.2132240315698</v>
       </c>
       <c r="AD7" t="n">
-        <v>117389.41419811</v>
+        <v>156111.6107985419</v>
       </c>
       <c r="AE7" t="n">
-        <v>160617.3753612339</v>
+        <v>213598.7930526663</v>
       </c>
       <c r="AF7" t="n">
         <v>2.250240979899873e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.633333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>145288.2784847041</v>
+        <v>193213.2240315698</v>
       </c>
     </row>
     <row r="8">
@@ -4758,28 +4758,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>117.5956439418456</v>
+        <v>156.3178405422776</v>
       </c>
       <c r="AB8" t="n">
-        <v>160.899547994827</v>
+        <v>213.8809656862594</v>
       </c>
       <c r="AC8" t="n">
-        <v>145.5435209581789</v>
+        <v>193.4684665050447</v>
       </c>
       <c r="AD8" t="n">
-        <v>117595.6439418456</v>
+        <v>156317.8405422776</v>
       </c>
       <c r="AE8" t="n">
-        <v>160899.547994827</v>
+        <v>213880.9656862594</v>
       </c>
       <c r="AF8" t="n">
         <v>2.249128141844754e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.637499999999999</v>
       </c>
       <c r="AH8" t="n">
-        <v>145543.5209581789</v>
+        <v>193468.4665050447</v>
       </c>
     </row>
   </sheetData>
@@ -5055,28 +5055,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>136.009563680678</v>
+        <v>173.39833625066</v>
       </c>
       <c r="AB2" t="n">
-        <v>186.0942853462899</v>
+        <v>237.2512534527451</v>
       </c>
       <c r="AC2" t="n">
-        <v>168.3337079378622</v>
+        <v>214.6083268075093</v>
       </c>
       <c r="AD2" t="n">
-        <v>136009.563680678</v>
+        <v>173398.33625066</v>
       </c>
       <c r="AE2" t="n">
-        <v>186094.2853462899</v>
+        <v>237251.2534527451</v>
       </c>
       <c r="AF2" t="n">
         <v>2.631487556415743e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.108333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>168333.7079378622</v>
+        <v>214608.3268075094</v>
       </c>
     </row>
     <row r="3">
@@ -5161,28 +5161,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>115.7694771081961</v>
+        <v>153.1240842593972</v>
       </c>
       <c r="AB3" t="n">
-        <v>158.4009059682342</v>
+        <v>209.5111274414417</v>
       </c>
       <c r="AC3" t="n">
-        <v>143.2833458197373</v>
+        <v>189.5156794892045</v>
       </c>
       <c r="AD3" t="n">
-        <v>115769.4771081961</v>
+        <v>153124.0842593972</v>
       </c>
       <c r="AE3" t="n">
-        <v>158400.9059682342</v>
+        <v>209511.1274414417</v>
       </c>
       <c r="AF3" t="n">
         <v>2.992596545782662e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.008333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>143283.3458197373</v>
+        <v>189515.6794892045</v>
       </c>
     </row>
   </sheetData>
@@ -5458,28 +5458,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>172.7950261084192</v>
+        <v>229.656281460511</v>
       </c>
       <c r="AB2" t="n">
-        <v>236.4257778999668</v>
+        <v>314.2258560142019</v>
       </c>
       <c r="AC2" t="n">
-        <v>213.8616334829257</v>
+        <v>284.2365813350584</v>
       </c>
       <c r="AD2" t="n">
-        <v>172795.0261084192</v>
+        <v>229656.281460511</v>
       </c>
       <c r="AE2" t="n">
-        <v>236425.7778999668</v>
+        <v>314225.8560142019</v>
       </c>
       <c r="AF2" t="n">
         <v>1.930724068913554e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>213861.6334829257</v>
+        <v>284236.5813350584</v>
       </c>
     </row>
     <row r="3">
@@ -5564,28 +5564,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>124.4230124223757</v>
+        <v>162.2859731285863</v>
       </c>
       <c r="AB3" t="n">
-        <v>170.2410547521231</v>
+        <v>222.0468279862702</v>
       </c>
       <c r="AC3" t="n">
-        <v>153.9934874214488</v>
+        <v>200.8549903680048</v>
       </c>
       <c r="AD3" t="n">
-        <v>124423.0124223757</v>
+        <v>162285.9731285863</v>
       </c>
       <c r="AE3" t="n">
-        <v>170241.0547521231</v>
+        <v>222046.8279862702</v>
       </c>
       <c r="AF3" t="n">
         <v>2.550634261138649e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.137500000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>153993.4874214488</v>
+        <v>200854.9903680048</v>
       </c>
     </row>
     <row r="4">
@@ -5670,28 +5670,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>109.6186085198016</v>
+        <v>147.5488890337167</v>
       </c>
       <c r="AB4" t="n">
-        <v>149.9850162084265</v>
+        <v>201.882899373415</v>
       </c>
       <c r="AC4" t="n">
-        <v>135.6706567668274</v>
+        <v>182.6154788017025</v>
       </c>
       <c r="AD4" t="n">
-        <v>109618.6085198016</v>
+        <v>147548.8890337167</v>
       </c>
       <c r="AE4" t="n">
-        <v>149985.0162084265</v>
+        <v>201882.899373415</v>
       </c>
       <c r="AF4" t="n">
         <v>2.690279705871185e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.716666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>135670.6567668275</v>
+        <v>182615.4788017025</v>
       </c>
     </row>
     <row r="5">
@@ -5776,28 +5776,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>109.2404629761648</v>
+        <v>147.1707434900798</v>
       </c>
       <c r="AB5" t="n">
-        <v>149.4676207930188</v>
+        <v>201.3655039580074</v>
       </c>
       <c r="AC5" t="n">
-        <v>135.2026408436971</v>
+        <v>182.1474628785722</v>
       </c>
       <c r="AD5" t="n">
-        <v>109240.4629761648</v>
+        <v>147170.7434900798</v>
       </c>
       <c r="AE5" t="n">
-        <v>149467.6207930188</v>
+        <v>201365.5039580074</v>
       </c>
       <c r="AF5" t="n">
         <v>2.709261123795943e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.662500000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>135202.6408436971</v>
+        <v>182147.4628785722</v>
       </c>
     </row>
   </sheetData>
@@ -6073,28 +6073,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.3556963379326</v>
+        <v>162.5777468750371</v>
       </c>
       <c r="AB2" t="n">
-        <v>159.2029969805266</v>
+        <v>222.4460456983132</v>
       </c>
       <c r="AC2" t="n">
-        <v>144.0088863915585</v>
+        <v>201.2161073019161</v>
       </c>
       <c r="AD2" t="n">
-        <v>116355.6963379326</v>
+        <v>162577.7468750371</v>
       </c>
       <c r="AE2" t="n">
-        <v>159202.9969805266</v>
+        <v>222446.0456983132</v>
       </c>
       <c r="AF2" t="n">
         <v>3.135514015892394e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.754166666666668</v>
       </c>
       <c r="AH2" t="n">
-        <v>144008.8863915585</v>
+        <v>201216.1073019161</v>
       </c>
     </row>
     <row r="3">
@@ -6179,28 +6179,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.2730534429532</v>
+        <v>149.210706399957</v>
       </c>
       <c r="AB3" t="n">
-        <v>153.6169448581257</v>
+        <v>204.1566712081118</v>
       </c>
       <c r="AC3" t="n">
-        <v>138.9559592436445</v>
+        <v>184.6722450437554</v>
       </c>
       <c r="AD3" t="n">
-        <v>112273.0534429532</v>
+        <v>149210.706399957</v>
       </c>
       <c r="AE3" t="n">
-        <v>153616.9448581258</v>
+        <v>204156.6712081118</v>
       </c>
       <c r="AF3" t="n">
         <v>3.338196340796462e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.225</v>
       </c>
       <c r="AH3" t="n">
-        <v>138955.9592436445</v>
+        <v>184672.2450437554</v>
       </c>
     </row>
   </sheetData>
@@ -6476,28 +6476,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>319.2376291705143</v>
+        <v>396.8075735346432</v>
       </c>
       <c r="AB2" t="n">
-        <v>436.7950080013151</v>
+        <v>542.9296280247388</v>
       </c>
       <c r="AC2" t="n">
-        <v>395.1079054833128</v>
+        <v>491.1131863325757</v>
       </c>
       <c r="AD2" t="n">
-        <v>319237.6291705143</v>
+        <v>396807.5735346432</v>
       </c>
       <c r="AE2" t="n">
-        <v>436795.0080013151</v>
+        <v>542929.6280247387</v>
       </c>
       <c r="AF2" t="n">
         <v>1.087804864239228e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.40416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>395107.9054833128</v>
+        <v>491113.1863325756</v>
       </c>
     </row>
     <row r="3">
@@ -6582,28 +6582,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>184.1907059201905</v>
+        <v>232.6680296066193</v>
       </c>
       <c r="AB3" t="n">
-        <v>252.017849760336</v>
+        <v>318.346662696656</v>
       </c>
       <c r="AC3" t="n">
-        <v>227.9656198885565</v>
+        <v>287.9641040113289</v>
       </c>
       <c r="AD3" t="n">
-        <v>184190.7059201906</v>
+        <v>232668.0296066193</v>
       </c>
       <c r="AE3" t="n">
-        <v>252017.849760336</v>
+        <v>318346.662696656</v>
       </c>
       <c r="AF3" t="n">
         <v>1.649806541678211e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.15833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>227965.6198885565</v>
+        <v>287964.1040113288</v>
       </c>
     </row>
     <row r="4">
@@ -6688,28 +6688,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>140.281715295887</v>
+        <v>179.0501102834891</v>
       </c>
       <c r="AB4" t="n">
-        <v>191.9396316602433</v>
+        <v>244.984260023131</v>
       </c>
       <c r="AC4" t="n">
-        <v>173.6211826036089</v>
+        <v>221.6033060841629</v>
       </c>
       <c r="AD4" t="n">
-        <v>140281.715295887</v>
+        <v>179050.1102834891</v>
       </c>
       <c r="AE4" t="n">
-        <v>191939.6316602433</v>
+        <v>244984.260023131</v>
       </c>
       <c r="AF4" t="n">
         <v>1.996024994365162e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.395833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>173621.1826036089</v>
+        <v>221603.3060841629</v>
       </c>
     </row>
     <row r="5">
@@ -6794,28 +6794,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>135.0540971653868</v>
+        <v>173.8224921529889</v>
       </c>
       <c r="AB5" t="n">
-        <v>184.7869739078614</v>
+        <v>237.8316022707491</v>
       </c>
       <c r="AC5" t="n">
-        <v>167.1511644682938</v>
+        <v>215.1332879488478</v>
       </c>
       <c r="AD5" t="n">
-        <v>135054.0971653868</v>
+        <v>173822.4921529889</v>
       </c>
       <c r="AE5" t="n">
-        <v>184786.9739078614</v>
+        <v>237831.6022707491</v>
       </c>
       <c r="AF5" t="n">
         <v>2.094163124541295e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.004166666666668</v>
       </c>
       <c r="AH5" t="n">
-        <v>167151.1644682938</v>
+        <v>215133.2879488478</v>
       </c>
     </row>
     <row r="6">
@@ -6900,28 +6900,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>121.4322174632533</v>
+        <v>160.2679322585598</v>
       </c>
       <c r="AB6" t="n">
-        <v>166.1489171444925</v>
+        <v>219.2856554382216</v>
       </c>
       <c r="AC6" t="n">
-        <v>150.2918976837379</v>
+        <v>198.357340252611</v>
       </c>
       <c r="AD6" t="n">
-        <v>121432.2174632533</v>
+        <v>160267.9322585598</v>
       </c>
       <c r="AE6" t="n">
-        <v>166148.9171444925</v>
+        <v>219285.6554382216</v>
       </c>
       <c r="AF6" t="n">
         <v>2.159159525510407e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.762499999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>150291.8976837379</v>
+        <v>198357.340252611</v>
       </c>
     </row>
     <row r="7">
@@ -7006,28 +7006,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>118.168383836913</v>
+        <v>157.0040986322196</v>
       </c>
       <c r="AB7" t="n">
-        <v>161.6831959867587</v>
+        <v>214.8199342804878</v>
       </c>
       <c r="AC7" t="n">
-        <v>146.2523786856178</v>
+        <v>194.3178212544909</v>
       </c>
       <c r="AD7" t="n">
-        <v>118168.383836913</v>
+        <v>157004.0986322195</v>
       </c>
       <c r="AE7" t="n">
-        <v>161683.1959867587</v>
+        <v>214819.9342804878</v>
       </c>
       <c r="AF7" t="n">
         <v>2.211727778026885e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.579166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>146252.3786856178</v>
+        <v>194317.8212544909</v>
       </c>
     </row>
     <row r="8">
@@ -7112,28 +7112,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>118.3666886757861</v>
+        <v>157.2024034710927</v>
       </c>
       <c r="AB8" t="n">
-        <v>161.9545254158968</v>
+        <v>215.0912637096259</v>
       </c>
       <c r="AC8" t="n">
-        <v>146.4978128148523</v>
+        <v>194.5632553837254</v>
       </c>
       <c r="AD8" t="n">
-        <v>118366.6886757861</v>
+        <v>157202.4034710927</v>
       </c>
       <c r="AE8" t="n">
-        <v>161954.5254158968</v>
+        <v>215091.2637096259</v>
       </c>
       <c r="AF8" t="n">
         <v>2.204367418263675e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.604166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>146497.8128148523</v>
+        <v>194563.2553837254</v>
       </c>
     </row>
   </sheetData>
@@ -7409,28 +7409,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.82375892147</v>
+        <v>147.6159977927643</v>
       </c>
       <c r="AB2" t="n">
-        <v>151.6339561554716</v>
+        <v>201.9747205381734</v>
       </c>
       <c r="AC2" t="n">
-        <v>137.1622241996289</v>
+        <v>182.6985366833682</v>
       </c>
       <c r="AD2" t="n">
-        <v>110823.75892147</v>
+        <v>147615.9977927643</v>
       </c>
       <c r="AE2" t="n">
-        <v>151633.9561554716</v>
+        <v>201974.7205381735</v>
       </c>
       <c r="AF2" t="n">
         <v>3.515544089697129e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.545833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>137162.2241996289</v>
+        <v>182698.5366833682</v>
       </c>
     </row>
     <row r="3">
@@ -7515,28 +7515,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>111.1748301893077</v>
+        <v>147.9670690606019</v>
       </c>
       <c r="AB3" t="n">
-        <v>152.1143073522981</v>
+        <v>202.4550717349999</v>
       </c>
       <c r="AC3" t="n">
-        <v>137.5967313524075</v>
+        <v>183.1330438361468</v>
       </c>
       <c r="AD3" t="n">
-        <v>111174.8301893077</v>
+        <v>147967.0690606019</v>
       </c>
       <c r="AE3" t="n">
-        <v>152114.3073522981</v>
+        <v>202455.0717349999</v>
       </c>
       <c r="AF3" t="n">
         <v>3.512732288882992e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.549999999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>137596.7313524075</v>
+        <v>183133.0438361468</v>
       </c>
     </row>
   </sheetData>
@@ -7812,28 +7812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>224.5940144881954</v>
+        <v>282.057357382052</v>
       </c>
       <c r="AB2" t="n">
-        <v>307.2994390112262</v>
+        <v>385.9233198625146</v>
       </c>
       <c r="AC2" t="n">
-        <v>277.9712118495571</v>
+        <v>349.0913398616169</v>
       </c>
       <c r="AD2" t="n">
-        <v>224594.0144881954</v>
+        <v>282057.357382052</v>
       </c>
       <c r="AE2" t="n">
-        <v>307299.4390112262</v>
+        <v>385923.3198625146</v>
       </c>
       <c r="AF2" t="n">
         <v>1.500786154706926e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.44166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>277971.2118495571</v>
+        <v>349091.3398616168</v>
       </c>
     </row>
     <row r="3">
@@ -7918,28 +7918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.505057381841</v>
+        <v>187.4131108810248</v>
       </c>
       <c r="AB3" t="n">
-        <v>190.8769740385171</v>
+        <v>256.4268863902208</v>
       </c>
       <c r="AC3" t="n">
-        <v>172.6599435338505</v>
+        <v>231.9538642506082</v>
       </c>
       <c r="AD3" t="n">
-        <v>139505.057381841</v>
+        <v>187413.1108810248</v>
       </c>
       <c r="AE3" t="n">
-        <v>190876.9740385171</v>
+        <v>256426.8863902208</v>
       </c>
       <c r="AF3" t="n">
         <v>2.09573154258086e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.908333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>172659.9435338505</v>
+        <v>231953.8642506082</v>
       </c>
     </row>
     <row r="4">
@@ -8024,28 +8024,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>129.0710342245123</v>
+        <v>167.3574895511796</v>
       </c>
       <c r="AB4" t="n">
-        <v>176.6006832380531</v>
+        <v>228.9859004951727</v>
       </c>
       <c r="AC4" t="n">
-        <v>159.7461618904782</v>
+        <v>207.1318075357092</v>
       </c>
       <c r="AD4" t="n">
-        <v>129071.0342245123</v>
+        <v>167357.4895511796</v>
       </c>
       <c r="AE4" t="n">
-        <v>176600.6832380531</v>
+        <v>228985.9004951727</v>
       </c>
       <c r="AF4" t="n">
         <v>2.317396317603419e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.058333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>159746.1618904783</v>
+        <v>207131.8075357092</v>
       </c>
     </row>
     <row r="5">
@@ -8130,28 +8130,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>113.7450026494211</v>
+        <v>152.0987777837928</v>
       </c>
       <c r="AB5" t="n">
-        <v>155.6309307002301</v>
+        <v>208.1082578881912</v>
       </c>
       <c r="AC5" t="n">
-        <v>140.7777331036258</v>
+        <v>188.2466978371759</v>
       </c>
       <c r="AD5" t="n">
-        <v>113745.0026494211</v>
+        <v>152098.7777837928</v>
       </c>
       <c r="AE5" t="n">
-        <v>155630.9307002301</v>
+        <v>208108.2578881912</v>
       </c>
       <c r="AF5" t="n">
         <v>2.438446976183269e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.658333333333332</v>
       </c>
       <c r="AH5" t="n">
-        <v>140777.7331036259</v>
+        <v>188246.6978371759</v>
       </c>
     </row>
     <row r="6">
@@ -8236,28 +8236,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>113.846528270594</v>
+        <v>152.2003034049657</v>
       </c>
       <c r="AB6" t="n">
-        <v>155.769842534113</v>
+        <v>208.2471697220741</v>
       </c>
       <c r="AC6" t="n">
-        <v>140.903387387047</v>
+        <v>188.3723521205971</v>
       </c>
       <c r="AD6" t="n">
-        <v>113846.528270594</v>
+        <v>152200.3034049657</v>
       </c>
       <c r="AE6" t="n">
-        <v>155769.842534113</v>
+        <v>208247.1697220741</v>
       </c>
       <c r="AF6" t="n">
         <v>2.435354604675675e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>140903.387387047</v>
+        <v>188372.3521205971</v>
       </c>
     </row>
   </sheetData>
@@ -8533,28 +8533,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>262.4682009994713</v>
+        <v>330.0258340334809</v>
       </c>
       <c r="AB2" t="n">
-        <v>359.1205718872811</v>
+        <v>451.5559058368341</v>
       </c>
       <c r="AC2" t="n">
-        <v>324.8466085352464</v>
+        <v>408.4600439464601</v>
       </c>
       <c r="AD2" t="n">
-        <v>262468.2009994712</v>
+        <v>330025.8340334808</v>
       </c>
       <c r="AE2" t="n">
-        <v>359120.5718872811</v>
+        <v>451555.9058368341</v>
       </c>
       <c r="AF2" t="n">
         <v>1.279209040113806e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.77916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>324846.6085352465</v>
+        <v>408460.0439464601</v>
       </c>
     </row>
     <row r="3">
@@ -8639,28 +8639,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>161.6924638922362</v>
+        <v>209.9479160593852</v>
       </c>
       <c r="AB3" t="n">
-        <v>221.2347624653168</v>
+        <v>287.2600010006779</v>
       </c>
       <c r="AC3" t="n">
-        <v>200.1204272406298</v>
+        <v>259.8443096772012</v>
       </c>
       <c r="AD3" t="n">
-        <v>161692.4638922362</v>
+        <v>209947.9160593852</v>
       </c>
       <c r="AE3" t="n">
-        <v>221234.7624653168</v>
+        <v>287260.0010006779</v>
       </c>
       <c r="AF3" t="n">
         <v>1.844042503641024e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.558333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>200120.4272406298</v>
+        <v>259844.3096772013</v>
       </c>
     </row>
     <row r="4">
@@ -8745,28 +8745,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>137.6104126676773</v>
+        <v>176.1474545936922</v>
       </c>
       <c r="AB4" t="n">
-        <v>188.2846375547741</v>
+        <v>241.0127184522215</v>
       </c>
       <c r="AC4" t="n">
-        <v>170.315016005748</v>
+        <v>218.0108028666861</v>
       </c>
       <c r="AD4" t="n">
-        <v>137610.4126676773</v>
+        <v>176147.4545936922</v>
       </c>
       <c r="AE4" t="n">
-        <v>188284.6375547741</v>
+        <v>241012.7184522215</v>
       </c>
       <c r="AF4" t="n">
         <v>2.088724705037176e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.4375</v>
       </c>
       <c r="AH4" t="n">
-        <v>170315.016005748</v>
+        <v>218010.8028666861</v>
       </c>
     </row>
     <row r="5">
@@ -8851,28 +8851,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>121.2476006269371</v>
+        <v>169.4347219565245</v>
       </c>
       <c r="AB5" t="n">
-        <v>165.8963162443248</v>
+        <v>231.8280615131902</v>
       </c>
       <c r="AC5" t="n">
-        <v>150.0634046589545</v>
+        <v>209.7027166951661</v>
       </c>
       <c r="AD5" t="n">
-        <v>121247.6006269371</v>
+        <v>169434.7219565245</v>
       </c>
       <c r="AE5" t="n">
-        <v>165896.3162443248</v>
+        <v>231828.0615131902</v>
       </c>
       <c r="AF5" t="n">
         <v>2.211827264868228e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.970833333333332</v>
       </c>
       <c r="AH5" t="n">
-        <v>150063.4046589545</v>
+        <v>209702.7166951661</v>
       </c>
     </row>
     <row r="6">
@@ -8957,28 +8957,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>117.2259421343383</v>
+        <v>155.8303038680576</v>
       </c>
       <c r="AB6" t="n">
-        <v>160.3937056717031</v>
+        <v>213.2138964999919</v>
       </c>
       <c r="AC6" t="n">
-        <v>145.0859555164197</v>
+        <v>192.8650614656769</v>
       </c>
       <c r="AD6" t="n">
-        <v>117225.9421343383</v>
+        <v>155830.3038680576</v>
       </c>
       <c r="AE6" t="n">
-        <v>160393.7056717032</v>
+        <v>213213.8964999919</v>
       </c>
       <c r="AF6" t="n">
         <v>2.282600660949792e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.720833333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>145085.9555164197</v>
+        <v>192865.0614656769</v>
       </c>
     </row>
     <row r="7">
@@ -9063,28 +9063,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>116.101042691859</v>
+        <v>154.7054044255783</v>
       </c>
       <c r="AB7" t="n">
-        <v>158.8545686274428</v>
+        <v>211.6747594557317</v>
       </c>
       <c r="AC7" t="n">
-        <v>143.6937115514707</v>
+        <v>191.4728175007279</v>
       </c>
       <c r="AD7" t="n">
-        <v>116101.042691859</v>
+        <v>154705.4044255783</v>
       </c>
       <c r="AE7" t="n">
-        <v>158854.5686274428</v>
+        <v>211674.7594557317</v>
       </c>
       <c r="AF7" t="n">
         <v>2.312466780276501e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.620833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>143693.7115514707</v>
+        <v>191472.8175007279</v>
       </c>
     </row>
   </sheetData>
@@ -9360,28 +9360,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>387.8757015422315</v>
+        <v>475.639731106687</v>
       </c>
       <c r="AB2" t="n">
-        <v>530.7086467183391</v>
+        <v>650.791263844148</v>
       </c>
       <c r="AC2" t="n">
-        <v>480.0585583298039</v>
+        <v>588.6806590141373</v>
       </c>
       <c r="AD2" t="n">
-        <v>387875.7015422315</v>
+        <v>475639.731106687</v>
       </c>
       <c r="AE2" t="n">
-        <v>530708.6467183391</v>
+        <v>650791.263844148</v>
       </c>
       <c r="AF2" t="n">
         <v>9.241346063851153e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.3375</v>
       </c>
       <c r="AH2" t="n">
-        <v>480058.5583298039</v>
+        <v>588680.6590141373</v>
       </c>
     </row>
     <row r="3">
@@ -9466,28 +9466,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>186.2538954911651</v>
+        <v>235.0007505673159</v>
       </c>
       <c r="AB3" t="n">
-        <v>254.8407967528418</v>
+        <v>321.5383944274651</v>
       </c>
       <c r="AC3" t="n">
-        <v>230.5191487821295</v>
+        <v>290.8512213453742</v>
       </c>
       <c r="AD3" t="n">
-        <v>186253.8954911651</v>
+        <v>235000.750567316</v>
       </c>
       <c r="AE3" t="n">
-        <v>254840.7967528418</v>
+        <v>321538.3944274651</v>
       </c>
       <c r="AF3" t="n">
         <v>1.588883922101195e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.08333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>230519.1487821295</v>
+        <v>290851.2213453742</v>
       </c>
     </row>
     <row r="4">
@@ -9572,28 +9572,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>148.4008257346329</v>
+        <v>197.1808351997074</v>
       </c>
       <c r="AB4" t="n">
-        <v>203.0485567524026</v>
+        <v>269.7915177246196</v>
       </c>
       <c r="AC4" t="n">
-        <v>183.6698874764503</v>
+        <v>244.0429939278341</v>
       </c>
       <c r="AD4" t="n">
-        <v>148400.8257346328</v>
+        <v>197180.8351997074</v>
       </c>
       <c r="AE4" t="n">
-        <v>203048.5567524026</v>
+        <v>269791.5177246196</v>
       </c>
       <c r="AF4" t="n">
         <v>1.830656393922726e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.754166666666668</v>
       </c>
       <c r="AH4" t="n">
-        <v>183669.8874764503</v>
+        <v>244042.9939278341</v>
       </c>
     </row>
     <row r="5">
@@ -9678,28 +9678,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>142.0281494931527</v>
+        <v>181.0121695925326</v>
       </c>
       <c r="AB5" t="n">
-        <v>194.3291799761802</v>
+        <v>247.6688361297105</v>
       </c>
       <c r="AC5" t="n">
-        <v>175.7826757820256</v>
+        <v>224.0316700149575</v>
       </c>
       <c r="AD5" t="n">
-        <v>142028.1494931527</v>
+        <v>181012.1695925326</v>
       </c>
       <c r="AE5" t="n">
-        <v>194329.1799761802</v>
+        <v>247668.8361297105</v>
       </c>
       <c r="AF5" t="n">
         <v>1.934987349235564e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.279166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>175782.6757820256</v>
+        <v>224031.6700149575</v>
       </c>
     </row>
     <row r="6">
@@ -9784,28 +9784,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>138.5779021131983</v>
+        <v>177.5619222125782</v>
       </c>
       <c r="AB6" t="n">
-        <v>189.6083992967573</v>
+        <v>242.9480554502877</v>
       </c>
       <c r="AC6" t="n">
-        <v>171.5124397849881</v>
+        <v>219.76143401792</v>
       </c>
       <c r="AD6" t="n">
-        <v>138577.9021131984</v>
+        <v>177561.9222125782</v>
       </c>
       <c r="AE6" t="n">
-        <v>189608.3992967573</v>
+        <v>242948.0554502876</v>
       </c>
       <c r="AF6" t="n">
         <v>1.987710437969034e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.0625</v>
       </c>
       <c r="AH6" t="n">
-        <v>171512.4397849881</v>
+        <v>219761.43401792</v>
       </c>
     </row>
     <row r="7">
@@ -9890,28 +9890,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>124.9392088129858</v>
+        <v>163.9905487200701</v>
       </c>
       <c r="AB7" t="n">
-        <v>170.9473374267331</v>
+        <v>224.3791035111049</v>
       </c>
       <c r="AC7" t="n">
-        <v>154.6323634688682</v>
+        <v>202.9646767901192</v>
       </c>
       <c r="AD7" t="n">
-        <v>124939.2088129858</v>
+        <v>163990.5487200701</v>
       </c>
       <c r="AE7" t="n">
-        <v>170947.3374267331</v>
+        <v>224379.1035111049</v>
       </c>
       <c r="AF7" t="n">
         <v>2.045048239064294e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>154632.3634688682</v>
+        <v>202964.6767901192</v>
       </c>
     </row>
     <row r="8">
@@ -9996,28 +9996,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>122.2547552059724</v>
+        <v>161.3060951130567</v>
       </c>
       <c r="AB8" t="n">
-        <v>167.2743495718844</v>
+        <v>220.7061156562562</v>
       </c>
       <c r="AC8" t="n">
-        <v>151.3099204198143</v>
+        <v>199.6422337410653</v>
       </c>
       <c r="AD8" t="n">
-        <v>122254.7552059724</v>
+        <v>161306.0951130567</v>
       </c>
       <c r="AE8" t="n">
-        <v>167274.3495718844</v>
+        <v>220706.1156562562</v>
       </c>
       <c r="AF8" t="n">
         <v>2.080543068313741e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AH8" t="n">
-        <v>151309.9204198143</v>
+        <v>199642.2337410653</v>
       </c>
     </row>
     <row r="9">
@@ -10102,28 +10102,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>121.2806489744948</v>
+        <v>160.331988881579</v>
       </c>
       <c r="AB9" t="n">
-        <v>165.9415344514434</v>
+        <v>219.3733005358152</v>
       </c>
       <c r="AC9" t="n">
-        <v>150.10430730385</v>
+        <v>198.436620625101</v>
       </c>
       <c r="AD9" t="n">
-        <v>121280.6489744948</v>
+        <v>160331.988881579</v>
       </c>
       <c r="AE9" t="n">
-        <v>165941.5344514434</v>
+        <v>219373.3005358152</v>
       </c>
       <c r="AF9" t="n">
         <v>2.098886549951863e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.633333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>150104.30730385</v>
+        <v>198436.620625101</v>
       </c>
     </row>
   </sheetData>
@@ -10399,28 +10399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>191.9920723673156</v>
+        <v>249.009039076066</v>
       </c>
       <c r="AB2" t="n">
-        <v>262.6920235052843</v>
+        <v>340.7051527671998</v>
       </c>
       <c r="AC2" t="n">
-        <v>237.6210654725873</v>
+        <v>308.188731169885</v>
       </c>
       <c r="AD2" t="n">
-        <v>191992.0723673156</v>
+        <v>249009.039076066</v>
       </c>
       <c r="AE2" t="n">
-        <v>262692.0235052843</v>
+        <v>340705.1527671998</v>
       </c>
       <c r="AF2" t="n">
         <v>1.773385947212741e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.2625</v>
       </c>
       <c r="AH2" t="n">
-        <v>237621.0654725873</v>
+        <v>308188.731169885</v>
       </c>
     </row>
     <row r="3">
@@ -10505,28 +10505,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.4514903972856</v>
+        <v>167.463138546405</v>
       </c>
       <c r="AB3" t="n">
-        <v>177.1212401581829</v>
+        <v>229.1304541113446</v>
       </c>
       <c r="AC3" t="n">
-        <v>160.2170375887573</v>
+        <v>207.2625651576361</v>
       </c>
       <c r="AD3" t="n">
-        <v>129451.4903972856</v>
+        <v>167463.138546405</v>
       </c>
       <c r="AE3" t="n">
-        <v>177121.2401581829</v>
+        <v>229130.4541113446</v>
       </c>
       <c r="AF3" t="n">
         <v>2.377202983928279e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.404166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>160217.0375887573</v>
+        <v>207262.5651576361</v>
       </c>
     </row>
     <row r="4">
@@ -10611,28 +10611,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>111.3250463305681</v>
+        <v>149.4040142873919</v>
       </c>
       <c r="AB4" t="n">
-        <v>152.3198397038391</v>
+        <v>204.4211635878422</v>
       </c>
       <c r="AC4" t="n">
-        <v>137.7826479847839</v>
+        <v>184.9114946419818</v>
       </c>
       <c r="AD4" t="n">
-        <v>111325.0463305681</v>
+        <v>149404.0142873919</v>
       </c>
       <c r="AE4" t="n">
-        <v>152319.839703839</v>
+        <v>204421.1635878422</v>
       </c>
       <c r="AF4" t="n">
         <v>2.592985475572316e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.704166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>137782.647984784</v>
+        <v>184911.4946419818</v>
       </c>
     </row>
     <row r="5">
@@ -10717,28 +10717,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>110.8664397722487</v>
+        <v>148.9454077290724</v>
       </c>
       <c r="AB5" t="n">
-        <v>151.6923539784533</v>
+        <v>203.7936778624564</v>
       </c>
       <c r="AC5" t="n">
-        <v>137.215048616347</v>
+        <v>184.3438952735449</v>
       </c>
       <c r="AD5" t="n">
-        <v>110866.4397722487</v>
+        <v>148945.4077290724</v>
       </c>
       <c r="AE5" t="n">
-        <v>151692.3539784533</v>
+        <v>203793.6778624564</v>
       </c>
       <c r="AF5" t="n">
         <v>2.602381913777655e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.675000000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>137215.048616347</v>
+        <v>184343.8952735449</v>
       </c>
     </row>
   </sheetData>
@@ -11014,28 +11014,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.0397759265081</v>
+        <v>190.0444427697415</v>
       </c>
       <c r="AB2" t="n">
-        <v>195.7133318921047</v>
+        <v>260.0271907665311</v>
       </c>
       <c r="AC2" t="n">
-        <v>177.0347261817641</v>
+        <v>235.2105606303036</v>
       </c>
       <c r="AD2" t="n">
-        <v>143039.7759265081</v>
+        <v>190044.4427697415</v>
       </c>
       <c r="AE2" t="n">
-        <v>195713.3318921047</v>
+        <v>260027.1907665311</v>
       </c>
       <c r="AF2" t="n">
         <v>2.388399539501786e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.508333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>177034.7261817641</v>
+        <v>235210.5606303036</v>
       </c>
     </row>
     <row r="3">
@@ -11120,28 +11120,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.3952472660967</v>
+        <v>155.3315832717685</v>
       </c>
       <c r="AB3" t="n">
-        <v>148.3111593702187</v>
+        <v>212.5315249781497</v>
       </c>
       <c r="AC3" t="n">
-        <v>134.1565504759849</v>
+        <v>192.2478145241646</v>
       </c>
       <c r="AD3" t="n">
-        <v>108395.2472660967</v>
+        <v>155331.5832717685</v>
       </c>
       <c r="AE3" t="n">
-        <v>148311.1593702188</v>
+        <v>212531.5249781497</v>
       </c>
       <c r="AF3" t="n">
         <v>2.847120088296864e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.979166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>134156.5504759849</v>
+        <v>192247.8145241646</v>
       </c>
     </row>
     <row r="4">
@@ -11226,28 +11226,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>107.3048562490995</v>
+        <v>144.9085897236862</v>
       </c>
       <c r="AB4" t="n">
-        <v>146.8192382761073</v>
+        <v>198.2703253756485</v>
       </c>
       <c r="AC4" t="n">
-        <v>132.8070162371706</v>
+        <v>179.3476837960022</v>
       </c>
       <c r="AD4" t="n">
-        <v>107304.8562490995</v>
+        <v>144908.5897236862</v>
       </c>
       <c r="AE4" t="n">
-        <v>146819.2382761073</v>
+        <v>198270.3253756485</v>
       </c>
       <c r="AF4" t="n">
         <v>2.88985768904022e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.858333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>132807.0162371706</v>
+        <v>179347.6837960022</v>
       </c>
     </row>
   </sheetData>
@@ -19816,28 +19816,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.2089923979867</v>
+        <v>169.3997076796718</v>
       </c>
       <c r="AB2" t="n">
-        <v>180.8941760479428</v>
+        <v>231.7801534348795</v>
       </c>
       <c r="AC2" t="n">
-        <v>163.6298897725485</v>
+        <v>209.65938089661</v>
       </c>
       <c r="AD2" t="n">
-        <v>132208.9923979867</v>
+        <v>169399.7076796718</v>
       </c>
       <c r="AE2" t="n">
-        <v>180894.1760479428</v>
+        <v>231780.1534348795</v>
       </c>
       <c r="AF2" t="n">
         <v>2.816590557990326e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.058333333333332</v>
       </c>
       <c r="AH2" t="n">
-        <v>163629.8897725485</v>
+        <v>209659.38089661</v>
       </c>
     </row>
     <row r="3">
@@ -19922,28 +19922,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.7668863404388</v>
+        <v>150.9234362033431</v>
       </c>
       <c r="AB3" t="n">
-        <v>155.6608729317207</v>
+        <v>206.5001036854097</v>
       </c>
       <c r="AC3" t="n">
-        <v>140.8048176905673</v>
+        <v>186.7920236144489</v>
       </c>
       <c r="AD3" t="n">
-        <v>113766.8863404388</v>
+        <v>150923.4362033431</v>
       </c>
       <c r="AE3" t="n">
-        <v>155660.8729317207</v>
+        <v>206500.1036854097</v>
       </c>
       <c r="AF3" t="n">
         <v>3.165113641946137e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.058333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>140804.8176905673</v>
+        <v>186792.0236144488</v>
       </c>
     </row>
   </sheetData>
@@ -20219,28 +20219,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.6504054032058</v>
+        <v>155.0881128230375</v>
       </c>
       <c r="AB2" t="n">
-        <v>162.3427191590509</v>
+        <v>212.198397969038</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.8489578919932</v>
+        <v>191.9464806892557</v>
       </c>
       <c r="AD2" t="n">
-        <v>118650.4054032058</v>
+        <v>155088.1128230375</v>
       </c>
       <c r="AE2" t="n">
-        <v>162342.7191590509</v>
+        <v>212198.397969038</v>
       </c>
       <c r="AF2" t="n">
         <v>3.72625255003211e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.054166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>146848.9578919932</v>
+        <v>191946.4806892557</v>
       </c>
     </row>
   </sheetData>
@@ -20516,28 +20516,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>247.8392217431397</v>
+        <v>305.5286785075223</v>
       </c>
       <c r="AB2" t="n">
-        <v>339.1045570835926</v>
+        <v>418.0378169079906</v>
       </c>
       <c r="AC2" t="n">
-        <v>306.7408940918706</v>
+        <v>378.1408743820522</v>
       </c>
       <c r="AD2" t="n">
-        <v>247839.2217431397</v>
+        <v>305528.6785075223</v>
       </c>
       <c r="AE2" t="n">
-        <v>339104.5570835926</v>
+        <v>418037.8169079906</v>
       </c>
       <c r="AF2" t="n">
         <v>1.383381760962673e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.1</v>
       </c>
       <c r="AH2" t="n">
-        <v>306740.8940918706</v>
+        <v>378140.8743820522</v>
       </c>
     </row>
     <row r="3">
@@ -20622,28 +20622,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>154.4807448157428</v>
+        <v>192.9293311956874</v>
       </c>
       <c r="AB3" t="n">
-        <v>211.3673702662724</v>
+        <v>263.9744223832032</v>
       </c>
       <c r="AC3" t="n">
-        <v>191.1947651040871</v>
+        <v>238.7810740014562</v>
       </c>
       <c r="AD3" t="n">
-        <v>154480.7448157428</v>
+        <v>192929.3311956874</v>
       </c>
       <c r="AE3" t="n">
-        <v>211367.3702662724</v>
+        <v>263974.4223832032</v>
       </c>
       <c r="AF3" t="n">
         <v>1.97685619017204e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>191194.7651040871</v>
+        <v>238781.0740014562</v>
       </c>
     </row>
     <row r="4">
@@ -20728,28 +20728,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>134.2832549810865</v>
+        <v>172.6976759422504</v>
       </c>
       <c r="AB4" t="n">
-        <v>183.7322736241453</v>
+        <v>236.2925791078283</v>
       </c>
       <c r="AC4" t="n">
-        <v>166.197123299374</v>
+        <v>213.7411469965632</v>
       </c>
       <c r="AD4" t="n">
-        <v>134283.2549810865</v>
+        <v>172697.6759422504</v>
       </c>
       <c r="AE4" t="n">
-        <v>183732.2736241453</v>
+        <v>236292.5791078284</v>
       </c>
       <c r="AF4" t="n">
         <v>2.175681433203116e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.329166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>166197.123299374</v>
+        <v>213741.1469965632</v>
       </c>
     </row>
     <row r="5">
@@ -20834,28 +20834,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>117.2893757229607</v>
+        <v>155.771116491829</v>
       </c>
       <c r="AB5" t="n">
-        <v>160.4804983061487</v>
+        <v>213.1329137206733</v>
       </c>
       <c r="AC5" t="n">
-        <v>145.164464783648</v>
+        <v>192.7918075691563</v>
       </c>
       <c r="AD5" t="n">
-        <v>117289.3757229607</v>
+        <v>155771.116491829</v>
       </c>
       <c r="AE5" t="n">
-        <v>160480.4983061487</v>
+        <v>213132.9137206733</v>
       </c>
       <c r="AF5" t="n">
         <v>2.323745560807095e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AH5" t="n">
-        <v>145164.464783648</v>
+        <v>192791.8075691563</v>
       </c>
     </row>
     <row r="6">
@@ -20940,28 +20940,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>114.7890058500015</v>
+        <v>153.2707466188698</v>
       </c>
       <c r="AB6" t="n">
-        <v>157.059381937434</v>
+        <v>209.7117973519586</v>
       </c>
       <c r="AC6" t="n">
-        <v>142.0698549595954</v>
+        <v>189.6971977451037</v>
       </c>
       <c r="AD6" t="n">
-        <v>114789.0058500015</v>
+        <v>153270.7466188698</v>
       </c>
       <c r="AE6" t="n">
-        <v>157059.381937434</v>
+        <v>209711.7973519586</v>
       </c>
       <c r="AF6" t="n">
         <v>2.375072138531153e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.629166666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>142069.8549595954</v>
+        <v>189697.1977451037</v>
       </c>
     </row>
   </sheetData>
@@ -21237,28 +21237,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>351.4156362706254</v>
+        <v>429.2389468066003</v>
       </c>
       <c r="AB2" t="n">
-        <v>480.8223769091704</v>
+        <v>587.3036637066405</v>
       </c>
       <c r="AC2" t="n">
-        <v>434.9333640954029</v>
+        <v>531.252226328347</v>
       </c>
       <c r="AD2" t="n">
-        <v>351415.6362706254</v>
+        <v>429238.9468066003</v>
       </c>
       <c r="AE2" t="n">
-        <v>480822.3769091704</v>
+        <v>587303.6637066405</v>
       </c>
       <c r="AF2" t="n">
         <v>1.00389851951004e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.3125</v>
       </c>
       <c r="AH2" t="n">
-        <v>434933.3640954029</v>
+        <v>531252.226328347</v>
       </c>
     </row>
     <row r="3">
@@ -21343,28 +21343,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>184.5424850429773</v>
+        <v>233.1568092000718</v>
       </c>
       <c r="AB3" t="n">
-        <v>252.4991694755321</v>
+        <v>319.0154324998511</v>
       </c>
       <c r="AC3" t="n">
-        <v>228.4010031256709</v>
+        <v>288.5690473631315</v>
       </c>
       <c r="AD3" t="n">
-        <v>184542.4850429773</v>
+        <v>233156.8092000718</v>
       </c>
       <c r="AE3" t="n">
-        <v>252499.1694755321</v>
+        <v>319015.4324998511</v>
       </c>
       <c r="AF3" t="n">
         <v>1.625685168114255e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.075</v>
       </c>
       <c r="AH3" t="n">
-        <v>228401.0031256709</v>
+        <v>288569.0473631315</v>
       </c>
     </row>
     <row r="4">
@@ -21449,28 +21449,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>143.7041548258258</v>
+        <v>182.6836354164458</v>
       </c>
       <c r="AB4" t="n">
-        <v>196.6223644124792</v>
+        <v>249.9558094098553</v>
       </c>
       <c r="AC4" t="n">
-        <v>177.8570019142295</v>
+        <v>226.1003777750332</v>
       </c>
       <c r="AD4" t="n">
-        <v>143704.1548258258</v>
+        <v>182683.6354164458</v>
       </c>
       <c r="AE4" t="n">
-        <v>196622.3644124792</v>
+        <v>249955.8094098553</v>
       </c>
       <c r="AF4" t="n">
         <v>1.920503224446759e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.529166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>177857.0019142295</v>
+        <v>226100.3777750332</v>
       </c>
     </row>
     <row r="5">
@@ -21555,28 +21555,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>138.5717602245553</v>
+        <v>177.44975558869</v>
       </c>
       <c r="AB5" t="n">
-        <v>189.5999956937548</v>
+        <v>242.7945841270417</v>
       </c>
       <c r="AC5" t="n">
-        <v>171.5048382100616</v>
+        <v>219.6226097823663</v>
       </c>
       <c r="AD5" t="n">
-        <v>138571.7602245553</v>
+        <v>177449.7555886901</v>
       </c>
       <c r="AE5" t="n">
-        <v>189599.9956937548</v>
+        <v>242794.5841270417</v>
       </c>
       <c r="AF5" t="n">
         <v>2.011923941555065e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.141666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>171504.8382100616</v>
+        <v>219622.6097823663</v>
       </c>
     </row>
     <row r="6">
@@ -21661,28 +21661,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>124.8010395738334</v>
+        <v>163.7463547456726</v>
       </c>
       <c r="AB6" t="n">
-        <v>170.7582881781282</v>
+        <v>224.0449865422565</v>
       </c>
       <c r="AC6" t="n">
-        <v>154.4613568152178</v>
+        <v>202.6624474758416</v>
       </c>
       <c r="AD6" t="n">
-        <v>124801.0395738334</v>
+        <v>163746.3547456726</v>
       </c>
       <c r="AE6" t="n">
-        <v>170758.2881781282</v>
+        <v>224044.9865422565</v>
       </c>
       <c r="AF6" t="n">
         <v>2.075596152094813e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.891666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>154461.3568152178</v>
+        <v>202662.4474758416</v>
       </c>
     </row>
     <row r="7">
@@ -21767,28 +21767,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>121.2905718698645</v>
+        <v>160.2358870417036</v>
       </c>
       <c r="AB7" t="n">
-        <v>165.9551113946555</v>
+        <v>219.2418097587838</v>
       </c>
       <c r="AC7" t="n">
-        <v>150.1165884826572</v>
+        <v>198.3176791432809</v>
       </c>
       <c r="AD7" t="n">
-        <v>121290.5718698645</v>
+        <v>160235.8870417036</v>
       </c>
       <c r="AE7" t="n">
-        <v>165955.1113946555</v>
+        <v>219241.8097587838</v>
       </c>
       <c r="AF7" t="n">
         <v>2.130503607726931e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.6875</v>
       </c>
       <c r="AH7" t="n">
-        <v>150116.5884826572</v>
+        <v>198317.679143281</v>
       </c>
     </row>
     <row r="8">
@@ -21873,28 +21873,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>119.8988470523083</v>
+        <v>158.8441622241475</v>
       </c>
       <c r="AB8" t="n">
-        <v>164.0508921007105</v>
+        <v>217.3375904648388</v>
       </c>
       <c r="AC8" t="n">
-        <v>148.3941052055371</v>
+        <v>196.5951958661609</v>
       </c>
       <c r="AD8" t="n">
-        <v>119898.8470523083</v>
+        <v>158844.1622241475</v>
       </c>
       <c r="AE8" t="n">
-        <v>164050.8921007105</v>
+        <v>217337.5904648388</v>
       </c>
       <c r="AF8" t="n">
         <v>2.14571419135587e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.633333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>148394.1052055371</v>
+        <v>196595.1958661609</v>
       </c>
     </row>
   </sheetData>
@@ -22170,28 +22170,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.7939645653241</v>
+        <v>171.8749915463048</v>
       </c>
       <c r="AB2" t="n">
-        <v>173.4850960731298</v>
+        <v>235.1669460230222</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.9279219918202</v>
+        <v>212.7229427535346</v>
       </c>
       <c r="AD2" t="n">
-        <v>126793.9645653241</v>
+        <v>171874.9915463048</v>
       </c>
       <c r="AE2" t="n">
-        <v>173485.0960731298</v>
+        <v>235166.9460230222</v>
       </c>
       <c r="AF2" t="n">
         <v>3.896321695895362e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.19583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>156927.9219918202</v>
+        <v>212722.9427535346</v>
       </c>
     </row>
   </sheetData>
@@ -22467,28 +22467,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.8537448465621</v>
+        <v>210.0019643414297</v>
       </c>
       <c r="AB2" t="n">
-        <v>222.8236782991248</v>
+        <v>287.333952244613</v>
       </c>
       <c r="AC2" t="n">
-        <v>201.557699177317</v>
+        <v>259.9112031182065</v>
       </c>
       <c r="AD2" t="n">
-        <v>162853.7448465621</v>
+        <v>210001.9643414297</v>
       </c>
       <c r="AE2" t="n">
-        <v>222823.6782991248</v>
+        <v>287333.952244613</v>
       </c>
       <c r="AF2" t="n">
         <v>2.128857074138878e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.175</v>
       </c>
       <c r="AH2" t="n">
-        <v>201557.699177317</v>
+        <v>259911.2031182065</v>
       </c>
     </row>
     <row r="3">
@@ -22573,28 +22573,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.7829433133492</v>
+        <v>158.4880549477024</v>
       </c>
       <c r="AB3" t="n">
-        <v>165.2605516086403</v>
+        <v>216.8503487788626</v>
       </c>
       <c r="AC3" t="n">
-        <v>149.4883165077983</v>
+        <v>196.1544558428461</v>
       </c>
       <c r="AD3" t="n">
-        <v>120782.9433133492</v>
+        <v>158488.0549477024</v>
       </c>
       <c r="AE3" t="n">
-        <v>165260.5516086403</v>
+        <v>216850.3487788626</v>
       </c>
       <c r="AF3" t="n">
         <v>2.705867635585941e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.004166666666668</v>
       </c>
       <c r="AH3" t="n">
-        <v>149488.3165077984</v>
+        <v>196154.4558428461</v>
       </c>
     </row>
     <row r="4">
@@ -22679,28 +22679,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>108.3938291011009</v>
+        <v>146.1662605431585</v>
       </c>
       <c r="AB4" t="n">
-        <v>148.3092189743065</v>
+        <v>199.9911260753703</v>
       </c>
       <c r="AC4" t="n">
-        <v>134.1547952687352</v>
+        <v>180.9042536921021</v>
       </c>
       <c r="AD4" t="n">
-        <v>108393.8291011009</v>
+        <v>146166.2605431585</v>
       </c>
       <c r="AE4" t="n">
-        <v>148309.2189743065</v>
+        <v>199991.1260753703</v>
       </c>
       <c r="AF4" t="n">
         <v>2.787480841123949e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.770833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>134154.7952687352</v>
+        <v>180904.2536921021</v>
       </c>
     </row>
   </sheetData>
@@ -22976,28 +22976,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>203.1107750079813</v>
+        <v>260.4404627027169</v>
       </c>
       <c r="AB2" t="n">
-        <v>277.9051229807766</v>
+        <v>356.3461308921617</v>
       </c>
       <c r="AC2" t="n">
-        <v>251.3822480858627</v>
+        <v>322.3369562947489</v>
       </c>
       <c r="AD2" t="n">
-        <v>203110.7750079813</v>
+        <v>260440.4627027169</v>
       </c>
       <c r="AE2" t="n">
-        <v>277905.1229807766</v>
+        <v>356346.1308921617</v>
       </c>
       <c r="AF2" t="n">
         <v>1.627471381645263e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.85</v>
       </c>
       <c r="AH2" t="n">
-        <v>251382.2480858627</v>
+        <v>322336.9562947489</v>
       </c>
     </row>
     <row r="3">
@@ -23082,28 +23082,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>134.3570653206203</v>
+        <v>182.0976396474498</v>
       </c>
       <c r="AB3" t="n">
-        <v>183.8332641869776</v>
+        <v>249.1540241464066</v>
       </c>
       <c r="AC3" t="n">
-        <v>166.2884754646309</v>
+        <v>225.3751137718151</v>
       </c>
       <c r="AD3" t="n">
-        <v>134357.0653206203</v>
+        <v>182097.6396474498</v>
       </c>
       <c r="AE3" t="n">
-        <v>183833.2641869776</v>
+        <v>249154.0241464066</v>
       </c>
       <c r="AF3" t="n">
         <v>2.229487672591744e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.65</v>
       </c>
       <c r="AH3" t="n">
-        <v>166288.4754646309</v>
+        <v>225375.1137718151</v>
       </c>
     </row>
     <row r="4">
@@ -23188,28 +23188,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>115.4892962042372</v>
+        <v>153.7090880007254</v>
       </c>
       <c r="AB4" t="n">
-        <v>158.0175500947288</v>
+        <v>210.3115553688702</v>
       </c>
       <c r="AC4" t="n">
-        <v>142.9365768927557</v>
+        <v>190.239715698647</v>
       </c>
       <c r="AD4" t="n">
-        <v>115489.2962042372</v>
+        <v>153709.0880007254</v>
       </c>
       <c r="AE4" t="n">
-        <v>158017.5500947288</v>
+        <v>210311.5553688701</v>
       </c>
       <c r="AF4" t="n">
         <v>2.446807869884819e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.883333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>142936.5768927557</v>
+        <v>190239.7156986471</v>
       </c>
     </row>
     <row r="5">
@@ -23294,28 +23294,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>112.3985478551699</v>
+        <v>150.6183396516581</v>
       </c>
       <c r="AB5" t="n">
-        <v>153.7886518493433</v>
+        <v>206.0826571234846</v>
       </c>
       <c r="AC5" t="n">
-        <v>139.1112787606125</v>
+        <v>186.4144175665038</v>
       </c>
       <c r="AD5" t="n">
-        <v>112398.5478551699</v>
+        <v>150618.3396516581</v>
       </c>
       <c r="AE5" t="n">
-        <v>153788.6518493433</v>
+        <v>206082.6571234846</v>
       </c>
       <c r="AF5" t="n">
         <v>2.511147608806517e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.679166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>139111.2787606125</v>
+        <v>186414.4175665038</v>
       </c>
     </row>
   </sheetData>
